--- a/final/Final_input_output.xlsx
+++ b/final/Final_input_output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\0_work\1_Models\2_building\2a_integrations\model_building\building-model\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800" firstSheet="1" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -1168,26 +1168,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6112,11 +6112,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6137,8 +6137,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
+      <c r="A1" s="92"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="63" t="s">
         <v>0</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="M2" s="68"/>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="91"/>
+      <c r="A3" s="94"/>
       <c r="B3" s="69" t="s">
         <v>65</v>
       </c>
@@ -6230,7 +6230,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="69" t="s">
         <v>66</v>
       </c>
@@ -6255,7 +6255,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="92"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="73" t="s">
         <v>24</v>
       </c>
@@ -6290,7 +6290,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="88" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="65" t="s">
@@ -6321,7 +6321,7 @@
       <c r="M6" s="79"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="94"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="73" t="s">
         <v>24</v>
       </c>
@@ -6391,7 +6391,7 @@
       <c r="M8" s="83"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="92"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="73" t="s">
         <v>24</v>
       </c>
@@ -6430,7 +6430,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="88" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="65" t="s">
@@ -6461,7 +6461,7 @@
       <c r="M10" s="79"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="94"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
@@ -6531,7 +6531,7 @@
       <c r="M12" s="86"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="92"/>
+      <c r="A13" s="91"/>
       <c r="B13" s="73" t="s">
         <v>24</v>
       </c>
@@ -6570,7 +6570,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="93" t="s">
+      <c r="A14" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="65" t="s">
@@ -6601,7 +6601,7 @@
       <c r="M14" s="83"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="94"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="73" t="s">
         <v>8</v>
       </c>
@@ -6671,7 +6671,7 @@
       <c r="M16" s="86"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="92"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="73" t="s">
         <v>24</v>
       </c>
@@ -6710,7 +6710,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="65" t="s">
@@ -6741,7 +6741,7 @@
       <c r="M18" s="83"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="94"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="73" t="s">
         <v>24</v>
       </c>
@@ -6811,7 +6811,7 @@
       <c r="M20" s="86"/>
     </row>
     <row r="21" spans="1:13" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="92"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="73" t="s">
         <v>24</v>
       </c>
@@ -6850,7 +6850,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="88" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="65" t="s">
@@ -6881,7 +6881,7 @@
       <c r="M22" s="79"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="94"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="73" t="s">
         <v>24</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="M24" s="83"/>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="92"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="73" t="s">
         <v>24</v>
       </c>
@@ -6990,7 +6990,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="88" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="65" t="s">
@@ -7021,7 +7021,7 @@
       <c r="M26" s="83"/>
     </row>
     <row r="27" spans="1:13" s="5" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="94"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="73" t="s">
         <v>24</v>
       </c>
@@ -7061,6 +7061,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A27"/>
@@ -7069,11 +7074,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I26">
     <cfRule type="colorScale" priority="11">
@@ -7184,8 +7184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C16:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
